--- a/steamcase/homepage/inovnpositioncase.xlsx
+++ b/steamcase/homepage/inovnpositioncase.xlsx
@@ -62,16 +62,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/pageQueryPositionShows-home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户浏览首页更多精彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"phoneNo":"18916899938"
 "position":"04"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/pageQueryPositionShows-inovncal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,17 +497,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/inovnpositioncase.xlsx
+++ b/steamcase/homepage/inovnpositioncase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE7B30F2-F584-4128-98A2-BF4BC592C5D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -62,23 +63,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户浏览首页更多精彩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"phoneNo":"18916899938"
 "position":"04"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/featured/index/configs/pageQueryPositionShows-inovncal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览创新大赛-计算内容列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,17 +498,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
